--- a/imputed.NW.2.xlsx
+++ b/imputed.NW.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaworthy/Documents/GitHub/IDE.Traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B5A3D3-CACE-334F-80C6-EEAD2CA2A1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A9C25-1006-5342-ADA0-3717630B3C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="500" windowWidth="25040" windowHeight="16480" xr2:uid="{6E126CFD-77A1-F244-B950-C809C9D716B4}"/>
   </bookViews>
@@ -2083,284 +2083,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2696,17 +2424,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A012C95-5845-7441-87AF-A4AF560C5804}">
   <dimension ref="A1:L662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D264" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27869,7 +27598,7 @@
   </sheetData>
   <autoFilter ref="A1:L662" xr:uid="{7A012C95-5845-7441-87AF-A4AF560C5804}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L662">
-      <sortCondition sortBy="cellColor" ref="L1:L662" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="L1:L662" dxfId="0"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L662">
